--- a/Pi-PROG-CM4/JLC-PNP-TOP.xlsx
+++ b/Pi-PROG-CM4/JLC-PNP-TOP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FID3</t>
+  </si>
+  <si>
+    <t>Top</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,10 +479,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -491,7 +496,10 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -505,7 +513,10 @@
       <c r="C4">
         <v>-90</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -519,7 +530,10 @@
       <c r="C5">
         <v>-71.930000000000007</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
         <v>180</v>
       </c>
     </row>
@@ -533,7 +547,10 @@
       <c r="C6">
         <v>-65.08</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
         <v>270</v>
       </c>
     </row>
@@ -547,7 +564,10 @@
       <c r="C7">
         <v>-58.85</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
         <v>90</v>
       </c>
     </row>
@@ -561,7 +581,10 @@
       <c r="C8">
         <v>-48.18</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -575,7 +598,10 @@
       <c r="C9">
         <v>-46.4</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
         <v>180</v>
       </c>
     </row>
@@ -589,7 +615,10 @@
       <c r="C10">
         <v>-55.25714</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
         <v>90</v>
       </c>
     </row>
@@ -603,7 +632,10 @@
       <c r="C11">
         <v>-55.25714</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
         <v>90</v>
       </c>
     </row>
@@ -617,7 +649,10 @@
       <c r="C12">
         <v>-5.13</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
         <v>90</v>
       </c>
     </row>
@@ -631,7 +666,10 @@
       <c r="C13">
         <v>3.27</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
         <v>180</v>
       </c>
     </row>
@@ -645,7 +683,10 @@
       <c r="C14">
         <v>3.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
         <v>90</v>
       </c>
     </row>
@@ -659,7 +700,10 @@
       <c r="C15">
         <v>3.5</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
         <v>90</v>
       </c>
       <c r="F15" t="s">
@@ -676,7 +720,10 @@
       <c r="C16">
         <v>3.28</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
         <v>180</v>
       </c>
       <c r="F16" t="s">
@@ -693,7 +740,10 @@
       <c r="C17">
         <v>7.07</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
         <v>180</v>
       </c>
       <c r="F17" t="s">

--- a/Pi-PROG-CM4/JLC-PNP-TOP.xlsx
+++ b/Pi-PROG-CM4/JLC-PNP-TOP.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>32.340000000000003</v>
+        <v>31.95</v>
       </c>
       <c r="C12">
-        <v>-5.13</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
